--- a/docs/lab01/Lab01_ReviewReport.xlsx
+++ b/docs/lab01/Lab01_ReviewReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t xml:space="preserve">do not print this form</t>
   </si>
@@ -99,6 +99,21 @@
     <t xml:space="preserve">Nu se precizează în niciun fel modul prin care utilizatorul va interacționa cu aplicația pentru a crea un nou test.</t>
   </si>
   <si>
+    <t xml:space="preserve">R02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipsește funcționalitatea de încărcare a întrebărilor dintr-un fișier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nu se precizează ce se va întâmpla dacă fișierul text cu întrebări nu există</t>
+  </si>
+  <si>
     <t xml:space="preserve">Effort to review document (hours):</t>
   </si>
   <si>
@@ -132,6 +147,12 @@
     <t xml:space="preserve">Clasa Intrebare conține field-urile „varianta1”, ”varianta2”, dar nu și „varianta3”</t>
   </si>
   <si>
+    <t xml:space="preserve">A06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AppController-ul ar putea avea intrebariRepository-ul injectat.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Review Form. Coding Defects</t>
   </si>
   <si>
@@ -162,7 +183,7 @@
     <t xml:space="preserve">StartApp:61</t>
   </si>
   <si>
-    <t xml:space="preserve">Se preferă afișarea unui mesaj corespunzător atnci când utilizatorul introduce comenzi eronate.</t>
+    <t xml:space="preserve">Se preferă afișarea unui mesaj corespunzător atunci când utilizatorul introduce comenzi eronate.</t>
   </si>
   <si>
     <t xml:space="preserve">IntrebariRepository:27</t>
@@ -553,7 +574,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -689,23 +710,35 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="13" t="n">
         <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="13" t="n">
         <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
+      <c r="C15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="13" t="n">
@@ -802,7 +835,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="14" t="n">
@@ -835,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -856,7 +889,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -867,16 +900,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="20" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E5" s="22"/>
     </row>
@@ -918,11 +951,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,11 +964,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,21 +977,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="13" t="n">
         <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="13" t="n">
@@ -1082,7 +1119,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="14" t="n">
@@ -1115,8 +1152,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1137,7 +1174,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1148,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E4" s="24"/>
     </row>
@@ -1157,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E5" s="25"/>
     </row>
@@ -1199,13 +1236,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,13 +1251,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,13 +1266,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,13 +1281,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,13 +1296,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1274,13 +1311,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,13 +1326,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,16 +1341,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="13" t="n">
         <f aca="false">B17+1</f>
         <v>9</v>
@@ -1435,7 +1472,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="14" t="n">
